--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_1_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_1_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.30000000000005</v>
+        <v>22.34000000000005</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.660146578878739e-16</v>
+        <v>1.708035422500241e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>55.53425056944859</v>
+        <v>51.95602624330596</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[47.86474276919839, 63.20375836969878]</t>
+          <t>[44.303730767852414, 59.6083217187595]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.566079220708426</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.427710775505271, 1.704447665911581]</t>
+          <t>[1.3899739268135018, 1.7170266154755023]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.77476901655971</v>
+        <v>57.08333091349763</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[56.588813332437844, 66.96072470068157]</t>
+          <t>[51.88371871980844, 62.282943107186824]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.74174174174178</v>
+        <v>16.81649649649654</v>
       </c>
       <c r="X2" t="n">
-        <v>16.25065065065068</v>
+        <v>16.23507507507512</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.23283283283287</v>
+        <v>17.39791791791796</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.88000000000045</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.660146578878739e-16</v>
+        <v>1.708035422500241e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>55.75540725352984</v>
+        <v>52.25304121964751</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.0053455143718, 62.50546899268788]</t>
+          <t>[45.24931122812851, 59.256771211166516]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.176158274558695</v>
+        <v>-2.251631971942235</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.3019477701979265, -2.0503687789194633]</t>
+          <t>[-2.377421467581467, -2.125842476303003]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>59.33524291862103</v>
+        <v>55.71404856357878</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.7606239326963, 62.90986190454576]</t>
+          <t>[52.160255664837486, 59.26784146232007]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>8.61709709709725</v>
+        <v>8.876536536536696</v>
       </c>
       <c r="X3" t="n">
-        <v>8.118998998999141</v>
+        <v>8.380640640640786</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.11519519519536</v>
+        <v>9.372432432432605</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_1_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_1_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.34000000000005</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.708035422500241e-16</v>
+        <v>1.620763539598769e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>51.95602624330596</v>
+        <v>56.43546617643332</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[44.303730767852414, 59.6083217187595]</t>
+          <t>[48.610932638054635, 64.259999714812]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.553500271144502</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3899739268135018, 1.7170266154755023]</t>
+          <t>[1.490605523324887, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.08333091349763</v>
+        <v>57.53168140779492</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.88371871980844, 62.282943107186824]</t>
+          <t>[52.333908257228416, 62.729454558361425]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.81649649649654</v>
+        <v>16.64378378378385</v>
       </c>
       <c r="X2" t="n">
-        <v>16.23507507507512</v>
+        <v>16.10252252252258</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.39791791791796</v>
+        <v>17.18504504504511</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.77000000000043</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.708035422500241e-16</v>
+        <v>1.620763539598769e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>52.25304121964751</v>
+        <v>51.5948109559659</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[45.24931122812851, 59.256771211166516]</t>
+          <t>[44.92369275725064, 58.26592915468115]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.251631971942235</v>
+        <v>-2.012631930227696</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.377421467581467, -2.125842476303003]</t>
+          <t>[-2.1384214258669267, -1.8868424345884645]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>55.71404856357878</v>
+        <v>58.52428842658121</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.160255664837486, 59.26784146232007]</t>
+          <t>[54.90959575979054, 62.138981093371875]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>8.876536536536696</v>
+        <v>7.979179179179326</v>
       </c>
       <c r="X3" t="n">
-        <v>8.380640640640786</v>
+        <v>7.480480480480617</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.372432432432605</v>
+        <v>8.477877877878035</v>
       </c>
     </row>
   </sheetData>
